--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2066003.247293646</v>
+        <v>-2068579.568774887</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12610011.71276486</v>
+        <v>12610011.71276485</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>121.1059660434829</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>104.057545146729</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>127.1343430708124</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>116.7459277403185</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,19 +950,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>178.7060423383828</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826029</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>43.32974201635265</v>
       </c>
       <c r="W7" t="n">
-        <v>91.22647872584881</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>127.6501362820659</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>177.2979137777578</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>61.42978662487853</v>
       </c>
       <c r="T10" t="n">
-        <v>134.134400226074</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>91.87132188694034</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>17.95257707283437</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>65.67353929277157</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>187.4608242120711</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>125.2193560244676</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002306</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808189</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
@@ -3007,16 +3007,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
@@ -3244,16 +3244,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140705</v>
+        <v>1186.041037313967</v>
       </c>
       <c r="C2" t="n">
-        <v>926.2736972002933</v>
+        <v>817.078520373555</v>
       </c>
       <c r="D2" t="n">
-        <v>926.2736972002933</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E2" t="n">
-        <v>926.2736972002933</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,10 +4340,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
@@ -4352,13 +4352,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381.1049005553748</v>
+        <v>661.8965607091751</v>
       </c>
       <c r="C4" t="n">
-        <v>381.1049005553748</v>
+        <v>492.9603777812682</v>
       </c>
       <c r="D4" t="n">
-        <v>381.1049005553748</v>
+        <v>342.8437383689325</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>194.9306447865393</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>282.3220529184993</v>
       </c>
       <c r="L4" t="n">
-        <v>471.3317757503526</v>
+        <v>438.0318968408565</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7642570495505</v>
+        <v>711.5489360544346</v>
       </c>
       <c r="N4" t="n">
-        <v>810.0730940793979</v>
+        <v>882.8577730842821</v>
       </c>
       <c r="O4" t="n">
-        <v>947.9914432975877</v>
+        <v>1020.776122302472</v>
       </c>
       <c r="P4" t="n">
-        <v>1055.03759626125</v>
+        <v>1119.727125055231</v>
       </c>
       <c r="Q4" t="n">
-        <v>1132.647892413765</v>
+        <v>1132.647892413771</v>
       </c>
       <c r="R4" t="n">
-        <v>1042.817435171293</v>
+        <v>1132.647892413771</v>
       </c>
       <c r="S4" t="n">
-        <v>1042.817435171293</v>
+        <v>1132.647892413771</v>
       </c>
       <c r="T4" t="n">
-        <v>924.8922556356181</v>
+        <v>1132.647892413771</v>
       </c>
       <c r="U4" t="n">
-        <v>635.7893887612616</v>
+        <v>843.5450255394148</v>
       </c>
       <c r="V4" t="n">
-        <v>381.1049005553748</v>
+        <v>843.5450255394148</v>
       </c>
       <c r="W4" t="n">
-        <v>381.1049005553748</v>
+        <v>843.5450255394148</v>
       </c>
       <c r="X4" t="n">
-        <v>381.1049005553748</v>
+        <v>843.5450255394148</v>
       </c>
       <c r="Y4" t="n">
-        <v>381.1049005553748</v>
+        <v>843.5450255394148</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4565,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2828.826251643334</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2455.360493382254</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2065.221161406442</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,49 +4647,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>696.2582702654239</v>
+        <v>482.8906159540807</v>
       </c>
       <c r="C7" t="n">
-        <v>527.322087337517</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4753,22 +4753,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1402.738380862829</v>
       </c>
       <c r="W7" t="n">
-        <v>877.9067350956636</v>
+        <v>1113.321210825868</v>
       </c>
       <c r="X7" t="n">
-        <v>877.9067350956636</v>
+        <v>885.3316599278505</v>
       </c>
       <c r="Y7" t="n">
-        <v>877.9067350956636</v>
+        <v>664.5390807843204</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943748</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>950.1045973369974</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>950.1045973369974</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,25 +4896,25 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>646.6939999491682</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7578170212613</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4960,16 +4960,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="T10" t="n">
-        <v>1600.119370757669</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="U10" t="n">
-        <v>1311.016503883312</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="V10" t="n">
-        <v>1056.332015677425</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W10" t="n">
-        <v>1056.332015677425</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X10" t="n">
-        <v>828.3424647794079</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y10" t="n">
-        <v>828.3424647794079</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1022.530292372933</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487568</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V13" t="n">
-        <v>1942.378057281681</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W13" t="n">
-        <v>1652.96088724472</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1424.971336346703</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.178757203173</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,22 +5276,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6918836311994</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7557007032925</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>482.6390612909568</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>482.6390612909568</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>335.7491137930464</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2380.626175203724</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614391</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5838,13 +5838,13 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5887,19 +5887,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5978,43 +5978,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>444.0993955623729</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6455,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319336</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656829</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150036</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942668</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580128</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6619,28 +6619,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656808</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942647</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,37 +6871,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,52 +6923,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,16 +7126,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,7 +7345,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973196</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,13 +7603,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7825,16 +7825,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>106.7437663446525</v>
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>107.1561191054346</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>8.176919404953637</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>261.6278756199977</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>302.8185005949825</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,22 +22702,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>18.28670495211887</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -22750,19 +22750,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>102.8030215358507</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>75.3754992116875</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892424</v>
+        <v>40.30478226780133</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>147.5715612194345</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>151.7319110345167</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>29.94462611521715</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>40.30478226780124</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66311.33934030094</v>
+        <v>66311.33934030095</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="F2" t="n">
+        <v>80714.65996900063</v>
+      </c>
+      <c r="G2" t="n">
         <v>80714.65996900064</v>
       </c>
-      <c r="G2" t="n">
-        <v>80714.65996900063</v>
-      </c>
       <c r="H2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900064</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="J2" t="n">
         <v>80714.6599690006</v>
@@ -26341,19 +26341,19 @@
         <v>82104.17698642839</v>
       </c>
       <c r="L2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="O2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="P2" t="n">
         <v>82104.1769864284</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.17698642841</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642841</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642839</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3287.485941553356</v>
+        <v>3287.485941553425</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184275</v>
@@ -26433,28 +26433,28 @@
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>21597.66737493624</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="L4" t="n">
         <v>21597.66737493622</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.66737493619</v>
+        <v>21597.66737493626</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493619</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493619</v>
+        <v>21597.66737493621</v>
       </c>
       <c r="P4" t="n">
         <v>21597.66737493621</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1373654.832890238</v>
+        <v>-1374049.653831392</v>
       </c>
       <c r="C6" t="n">
         <v>-118623.606458159</v>
@@ -26528,40 +26528,40 @@
         <v>-118623.606458159</v>
       </c>
       <c r="E6" t="n">
-        <v>-359427.1397741047</v>
+        <v>-359461.8776995403</v>
       </c>
       <c r="F6" t="n">
-        <v>-34014.67796674922</v>
+        <v>-34049.41589218493</v>
       </c>
       <c r="G6" t="n">
-        <v>-34014.67796674924</v>
+        <v>-34049.41589218492</v>
       </c>
       <c r="H6" t="n">
-        <v>-34014.67796674925</v>
+        <v>-34049.41589218492</v>
       </c>
       <c r="I6" t="n">
-        <v>-34014.67796674927</v>
+        <v>-34049.41589218497</v>
       </c>
       <c r="J6" t="n">
-        <v>-251545.8803640268</v>
+        <v>-251580.6182894624</v>
       </c>
       <c r="K6" t="n">
         <v>-62085.32423605504</v>
       </c>
       <c r="L6" t="n">
-        <v>-42657.60624242322</v>
+        <v>-42657.6062424233</v>
       </c>
       <c r="M6" t="n">
         <v>-127712.6341779351</v>
       </c>
       <c r="N6" t="n">
-        <v>-42657.60624242322</v>
+        <v>-42657.60624242327</v>
       </c>
       <c r="O6" t="n">
-        <v>-42657.60624242313</v>
+        <v>-42657.60624242325</v>
       </c>
       <c r="P6" t="n">
-        <v>-62085.32423605504</v>
+        <v>-62085.32423605502</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.2846474920397</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203966</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>170.5349263790302</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>272.5496012734507</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>208.8079013074753</v>
       </c>
       <c r="W7" t="n">
-        <v>195.2965196107422</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>279.2259094596455</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>150.4543446923771</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>128.3392387065634</v>
       </c>
       <c r="T10" t="n">
-        <v>85.41454905009516</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>746.4857620875795</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32558,16 +32558,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>522.1224556861829</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>522.1224556861829</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,16 +34454,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
@@ -34863,7 +34863,7 @@
         <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>276.2798375894728</v>
       </c>
       <c r="N4" t="n">
         <v>173.0392293230783</v>
@@ -34872,10 +34872,10 @@
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>108.127427236023</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>615.1440500042462</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36206,16 +36206,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016747</v>
@@ -36999,13 +36999,13 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q31" t="n">
         <v>144.6869047919381</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>379.5262112417385</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>379.5262112417385</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,16 +38102,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
